--- a/biology/Botanique/Sanicle_d'Europe/Sanicle_d'Europe.xlsx
+++ b/biology/Botanique/Sanicle_d'Europe/Sanicle_d'Europe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sanicle_d%27Europe</t>
+          <t>Sanicle_d'Europe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sanicula europaea
 La Sanicle d'Europe (Sanicula europaea) est une plante herbacée de la famille des Apiacées (Ombellifères). Elle pousse dans les sous-bois européens jusqu'à 1 700 mètres d'altitude.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sanicle_d%27Europe</t>
+          <t>Sanicle_d'Europe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante vivace, glabre, de taille moyenne (15-50 cm), qui se reconnaît facilement à l'aspect globuleux de ses ombelles (3 à 5 rayons inégaux).
 Tige striée, simple et dressée dont la souche est courte et d'aspect fibreux.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sanicle_d%27Europe</t>
+          <t>Sanicle_d'Europe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,21 +563,18 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Organes reproducteurs
-Couleur dominante des fleurs : blanc
+          <t>Organes reproducteurs</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Couleur dominante des fleurs : blanc
 Période de floraison : juin-août
 Inflorescence : cyme d'ombelles
 Sexualité : androdioïque
 Ordre de maturation : protogyne
-Pollinisation : entomogame
-Graine
-Fruit : schizocarpe (diakène)
-Dissémination : épizoochore
-Habitat et répartition
-Habitat type : sous-bois herbacés médioeuropéens, planitiaires à montagnards
-Aire de répartition : européen
-Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
-</t>
+Pollinisation : entomogame</t>
         </is>
       </c>
     </row>
@@ -573,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sanicle_d%27Europe</t>
+          <t>Sanicle_d'Europe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -588,13 +599,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Propriétés phytothérapeutiques</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Sanicle d'Europe contient des saponines, tanins, mucilages et de la vitamine C. Ces molécules lui confèrent des vertus astringentes et vulnéraires. Elle doit à ses propriétés cicatrisantes son surnom d'herbe de Saint-Laurent, en mémoire du martyr brûlé sur un gril par les Romains au IIIe siècle. Cette réputation au Moyen Âge lui vaut le distique « Qui a la bugle et la sanicle, fait au chirurgien la nique[1] ».
-</t>
+          <t>Graine</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Fruit : schizocarpe (diakène)
+Dissémination : épizoochore</t>
         </is>
       </c>
     </row>
@@ -604,7 +621,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sanicle_d%27Europe</t>
+          <t>Sanicle_d'Europe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,10 +636,84 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Habitat et répartition</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Habitat type : sous-bois herbacés médioeuropéens, planitiaires à montagnards
+Aire de répartition : européen
+Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sanicle_d'Europe</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanicle_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Propriétés phytothérapeutiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Sanicle d'Europe contient des saponines, tanins, mucilages et de la vitamine C. Ces molécules lui confèrent des vertus astringentes et vulnéraires. Elle doit à ses propriétés cicatrisantes son surnom d'herbe de Saint-Laurent, en mémoire du martyr brûlé sur un gril par les Romains au IIIe siècle. Cette réputation au Moyen Âge lui vaut le distique « Qui a la bugle et la sanicle, fait au chirurgien la nique ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sanicle_d'Europe</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sanicle_d%27Europe</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Sanicula vient du latin sanus : sain.
 </t>
